--- a/Card List.xlsx
+++ b/Card List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theam\Documents\School\CS 246\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE2263-AD51-4F10-A6EA-C6609560D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE11D9-65E7-476E-B835-14551D369F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{25104236-2080-4695-A46D-917938CB6ED8}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{25104236-2080-4695-A46D-917938CB6ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D2503A-4110-40BF-AB13-3C9A0E88E423}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,46 +799,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -847,15 +830,15 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -864,15 +847,15 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -881,60 +864,49 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -942,33 +914,27 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -977,79 +943,114 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>30</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D23">
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I26" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Card List.xlsx
+++ b/Card List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theam\Documents\School\CS 246\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE11D9-65E7-476E-B835-14551D369F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2F906C-D9D0-4AD3-92FC-33C60FABC527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{25104236-2080-4695-A46D-917938CB6ED8}"/>
+    <workbookView xWindow="360" yWindow="1275" windowWidth="17475" windowHeight="14145" xr2:uid="{25104236-2080-4695-A46D-917938CB6ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>Index</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Ritual Charges</t>
+  </si>
+  <si>
+    <t>Double attack and defence</t>
+  </si>
+  <si>
+    <t>Increase attack and defence by +2</t>
   </si>
 </sst>
 </file>
@@ -569,7 +575,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,6 +920,9 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -927,6 +936,9 @@
       </c>
       <c r="D19">
         <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
